--- a/biology/Botanique/Jardin_Marguerite-Huré/Jardin_Marguerite-Huré.xlsx
+++ b/biology/Botanique/Jardin_Marguerite-Huré/Jardin_Marguerite-Huré.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Jardin_Marguerite-Hur%C3%A9</t>
+          <t>Jardin_Marguerite-Huré</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le jardin Marguerite-Huré est un espace vert du 12e arrondissement de Paris, dans le quartier du Bel-Air.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Jardin_Marguerite-Hur%C3%A9</t>
+          <t>Jardin_Marguerite-Huré</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Situation et accès</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le site est accessible par le boulevard Carnot.
 Il est desservi par la ligne 1 à la station Porte de Vincennes.
@@ -526,7 +540,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Jardin_Marguerite-Hur%C3%A9</t>
+          <t>Jardin_Marguerite-Huré</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -544,9 +558,11 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le jardin est créé en 1959 au sein du groupe d'immeubles du boulevard Carnot. Il est réaménagé en 2020 et a été nommé officiellement[1] pour l'occasion en mémoire de la vitrailliste Marguerite Huré (1895-1967), native de ce quartier du 12e arrondissement.
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le jardin est créé en 1959 au sein du groupe d'immeubles du boulevard Carnot. Il est réaménagé en 2020 et a été nommé officiellement pour l'occasion en mémoire de la vitrailliste Marguerite Huré (1895-1967), native de ce quartier du 12e arrondissement.
 </t>
         </is>
       </c>
